--- a/sofaaudit/output/nometadata.xlsx
+++ b/sofaaudit/output/nometadata.xlsx
@@ -1,29 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="22600" windowHeight="14280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>column_name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>0459_20140807_SOFA_AVOS</t>
+  </si>
+  <si>
+    <t>0422_SOFA_NORWEGIANWOOD</t>
+  </si>
+  <si>
+    <t>0470_20140814_SOFA_OGUERREIRODOAMANHÃ</t>
+  </si>
+  <si>
+    <t>0497_20140910_SOFA_SUNEIGREKLAND</t>
+  </si>
+  <si>
+    <t>0447_20140728_SOFA_PRAIADOFUTURO</t>
+  </si>
+  <si>
+    <t>0186_20130705_SOFA_EUNAOFACOAMENORIDEIA</t>
+  </si>
+  <si>
+    <t>SOFA_SIMPLESMENTEUMAMULHER</t>
+  </si>
+  <si>
+    <t>MovieAssetCutomID</t>
+  </si>
+  <si>
+    <t>XXXX</t>
+  </si>
+  <si>
+    <t>00327_20140423_SOFA_OPALACIOFRANCES</t>
+  </si>
+  <si>
+    <t>[Empty]</t>
+  </si>
+  <si>
+    <t>No Metadata</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,11 +113,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,19 +413,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="35.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>